--- a/@list.xlsx
+++ b/@list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BCA\Semester 4\Java\Program\unit-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E588C13-CD59-42B2-A293-BA8B55E1749F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EF0FAE-215E-4A7F-B513-C649A5CCEFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9851F4EB-909C-41B0-A6CB-8E3B3943DEC1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>class/constructor</t>
   </si>
@@ -127,6 +127,18 @@
       </rPr>
       <t>not error but not work</t>
     </r>
+  </si>
+  <si>
+    <t>vector .util pkg</t>
+  </si>
+  <si>
+    <t>hashtable .util pkg</t>
+  </si>
+  <si>
+    <t>user define package</t>
+  </si>
+  <si>
+    <t>user define package another program</t>
   </si>
 </sst>
 </file>
@@ -484,7 +496,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -492,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D45C1D-D992-4C4F-BEA1-8A0DF566230B}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="140" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -719,6 +731,38 @@
         <v>26</v>
       </c>
     </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/@list.xlsx
+++ b/@list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BCA\Semester 4\Java\Program\unit-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2B7615-1C07-4024-A50D-4A5EAF856C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E95036-9D59-42F6-A373-B6E248B1FD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>No</t>
   </si>
@@ -34,6 +34,15 @@
   </si>
   <si>
     <t>Exception handling using try,catch,finally</t>
+  </si>
+  <si>
+    <t>throw</t>
+  </si>
+  <si>
+    <t>create our exception</t>
+  </si>
+  <si>
+    <t>Thread</t>
   </si>
 </sst>
 </file>
@@ -360,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -389,6 +398,30 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/@list.xlsx
+++ b/@list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BCA\Semester 4\Java\Program\unit-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E95036-9D59-42F6-A373-B6E248B1FD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAF7E4E-2B85-4D18-8F1C-283F655C5E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>No</t>
   </si>
@@ -43,6 +43,27 @@
   </si>
   <si>
     <t>Thread</t>
+  </si>
+  <si>
+    <t>Thread another program for more details abouts</t>
+  </si>
+  <si>
+    <t>Thread using Interface</t>
+  </si>
+  <si>
+    <t>Thread using extends</t>
+  </si>
+  <si>
+    <t>File Handling , write , FileOutputStream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get file name from user </t>
+  </si>
+  <si>
+    <t>BufferedReadder</t>
+  </si>
+  <si>
+    <t>BufferedReader get file input data from user</t>
   </si>
 </sst>
 </file>
@@ -369,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -422,6 +443,62 @@
         <v>5</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/@list.xlsx
+++ b/@list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BCA\Semester 4\Java\Program\unit-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAF7E4E-2B85-4D18-8F1C-283F655C5E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C01BEF1-2047-4BB5-9163-3E3EE97770DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>No</t>
   </si>
@@ -64,6 +64,21 @@
   </si>
   <si>
     <t>BufferedReader get file input data from user</t>
+  </si>
+  <si>
+    <t>BufferedReader get file name from user then write A to Z</t>
+  </si>
+  <si>
+    <t>FileInputStream</t>
+  </si>
+  <si>
+    <t>Error Handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copy one file data to other </t>
+  </si>
+  <si>
+    <t>RandomAccesFile</t>
   </si>
 </sst>
 </file>
@@ -390,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -499,6 +514,46 @@
         <v>12</v>
       </c>
     </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/@list.xlsx
+++ b/@list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BCA\Semester 4\Java\Program\unit-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC7A223-116F-42DC-BF03-3F0B36921C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD5318A-1709-42EA-BAB3-1277F0C549F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Index</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>click button to open new Jframe</t>
+  </si>
+  <si>
+    <t>Cancle Button Click Close Frame</t>
+  </si>
+  <si>
+    <t>Card Layout</t>
   </si>
 </sst>
 </file>
@@ -402,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -559,6 +565,28 @@
         <v>44999</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
